--- a/scripts/Gnome.xlsx
+++ b/scripts/Gnome.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="433">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>drooping</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1451,61 +1461,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1527,6 +1539,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="21" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1803,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1820,6 +1833,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1832,6 +1848,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1845,6 +1865,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1575</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1869,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1882,7 +1906,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1895,7 +1919,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1908,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1921,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1934,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1947,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1960,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1973,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1986,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -1999,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2012,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2025,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2038,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2051,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2064,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2077,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2090,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2103,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2116,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2129,7 +2153,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2142,7 +2166,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2155,7 +2179,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2168,7 +2192,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2181,7 +2205,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2194,7 +2218,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2207,7 +2231,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2220,7 +2244,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2233,7 +2257,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2246,7 +2270,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2259,7 +2283,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2272,7 +2296,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2285,7 +2309,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2298,7 +2322,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2311,7 +2335,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2324,7 +2348,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2337,7 +2361,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2350,7 +2374,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2363,7 +2387,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2376,7 +2400,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2389,7 +2413,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2402,7 +2426,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2415,7 +2439,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2428,7 +2452,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2441,7 +2465,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2454,7 +2478,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2467,7 +2491,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2480,7 +2504,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2493,7 +2517,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2506,7 +2530,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2519,7 +2543,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2532,7 +2556,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2545,7 +2569,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2558,7 +2582,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2571,7 +2595,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2584,7 +2608,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2597,7 +2621,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2610,7 +2634,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2623,7 +2647,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2636,7 +2660,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2649,7 +2673,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2662,7 +2686,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2675,7 +2699,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2688,7 +2712,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2701,7 +2725,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2714,7 +2738,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2727,7 +2751,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2740,7 +2764,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2753,7 +2777,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2766,7 +2790,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2779,7 +2803,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2792,7 +2816,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2805,7 +2829,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2818,7 +2842,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2831,7 +2855,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2844,7 +2868,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2857,7 +2881,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2870,7 +2894,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2883,7 +2907,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2896,7 +2920,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2909,7 +2933,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2922,7 +2946,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2935,7 +2959,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -2950,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2962,15 +2986,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2981,8 +3008,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2994,12 +3025,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -3018,11 +3053,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3030,11 +3065,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3042,11 +3077,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -3054,11 +3089,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3066,11 +3101,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -3078,11 +3113,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3090,11 +3125,11 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3102,11 +3137,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3114,11 +3149,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -3126,11 +3161,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -3138,7 +3173,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3150,7 +3185,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3162,7 +3197,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3174,7 +3209,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3186,7 +3221,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3198,7 +3233,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3210,7 +3245,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3224,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,15 +3271,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3255,8 +3293,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3268,12 +3310,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3284,7 +3330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>422</v>
       </c>
@@ -3292,11 +3338,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>419</v>
       </c>
@@ -3304,11 +3350,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -3316,11 +3362,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>410</v>
       </c>
@@ -3328,11 +3374,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -3340,11 +3386,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -3352,11 +3398,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -3364,11 +3410,11 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -3376,11 +3422,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -3388,11 +3434,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -3400,11 +3446,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -3412,7 +3458,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3424,7 +3470,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3436,7 +3482,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3448,7 +3494,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3460,7 +3506,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3472,7 +3518,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3484,7 +3530,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3496,7 +3542,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3512,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3529,6 +3575,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3541,6 +3590,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3554,6 +3607,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>41</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.640625</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -3578,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3591,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3604,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3617,7 +3674,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3630,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3643,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3656,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3669,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3682,7 +3739,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -3695,7 +3752,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -3708,7 +3765,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3721,7 +3778,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3734,7 +3791,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3747,7 +3804,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3760,7 +3817,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3773,7 +3830,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3786,7 +3843,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3799,7 +3856,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3812,7 +3869,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3825,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3838,7 +3895,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3851,7 +3908,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3864,7 +3921,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3877,7 +3934,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3890,7 +3947,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3903,7 +3960,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3916,7 +3973,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3929,7 +3986,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3942,7 +3999,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3955,7 +4012,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3968,7 +4025,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -3981,7 +4038,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -3994,7 +4051,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4007,7 +4064,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4020,7 +4077,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4033,7 +4090,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4046,7 +4103,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4059,7 +4116,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4072,7 +4129,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4085,7 +4142,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -4098,7 +4155,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -4111,7 +4168,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -4124,7 +4181,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4137,7 +4194,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="7"/>
@@ -4150,7 +4207,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="8"/>
@@ -4163,7 +4220,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="7"/>
@@ -4176,7 +4233,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="7"/>
@@ -4189,7 +4246,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="8"/>
@@ -4202,7 +4259,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
     </row>
@@ -4219,7 +4276,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4235,6 +4292,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4247,6 +4307,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4260,6 +4324,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>44</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.30555555555555558</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4284,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4297,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4310,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4323,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4336,7 +4404,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4349,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4362,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4375,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4388,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4401,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -4414,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -4427,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -4440,7 +4508,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
@@ -4453,7 +4521,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -4466,7 +4534,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
@@ -4479,7 +4547,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -4492,7 +4560,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
@@ -4505,7 +4573,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
@@ -4518,7 +4586,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
@@ -4531,7 +4599,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
@@ -4544,7 +4612,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -4557,7 +4625,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -4570,7 +4638,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -4583,7 +4651,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -4596,7 +4664,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -4609,7 +4677,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -4622,7 +4690,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -4635,7 +4703,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -4648,7 +4716,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -4661,7 +4729,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -4674,7 +4742,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -4687,7 +4755,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -4700,7 +4768,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -4713,7 +4781,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -4726,7 +4794,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -4739,7 +4807,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -4752,7 +4820,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -4765,7 +4833,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -4778,7 +4846,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -4791,7 +4859,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -4804,7 +4872,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -4817,7 +4885,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -4830,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -4843,7 +4911,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -4856,7 +4924,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -4869,7 +4937,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -4882,7 +4950,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -4895,7 +4963,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -4908,7 +4976,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -4921,7 +4989,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -4934,7 +5002,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -4947,7 +5015,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -4960,7 +5028,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -4973,7 +5041,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -4986,7 +5054,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -4999,7 +5067,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -5014,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5026,15 +5094,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5045,8 +5116,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5058,8 +5133,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5082,7 +5161,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>405</v>
       </c>
@@ -5094,7 +5173,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>403</v>
       </c>
@@ -5106,7 +5185,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>402</v>
       </c>
@@ -5118,7 +5197,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>404</v>
       </c>
@@ -5130,7 +5209,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>401</v>
       </c>
@@ -5142,7 +5221,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -5154,7 +5233,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -5166,7 +5245,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -5178,7 +5257,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -5190,7 +5269,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -5235,7 +5314,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5244,15 +5323,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5263,8 +5345,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5276,11 +5362,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5291,7 +5381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5393,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>406</v>
       </c>
@@ -5315,7 +5405,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5327,7 +5417,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5339,7 +5429,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5441,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5363,7 +5453,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5375,15 +5465,15 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -5424,7 +5514,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5440,6 +5530,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5452,6 +5545,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5465,6 +5562,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>29</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.80555555555555558</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -5489,7 +5590,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5502,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5515,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5528,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5541,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5554,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5567,7 +5668,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -5580,7 +5681,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -5593,7 +5694,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -5606,7 +5707,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -5619,7 +5720,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5632,7 +5733,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5645,7 +5746,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5658,7 +5759,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5671,7 +5772,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5684,7 +5785,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5697,7 +5798,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5710,7 +5811,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5723,7 +5824,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5736,7 +5837,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5749,7 +5850,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5762,7 +5863,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5775,7 +5876,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5788,7 +5889,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5801,7 +5902,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5814,7 +5915,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5827,7 +5928,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5840,7 +5941,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5853,7 +5954,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5866,7 +5967,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5879,7 +5980,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -5892,7 +5993,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -5905,7 +6006,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5918,7 +6019,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -5931,7 +6032,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -6184,7 +6285,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6200,6 +6301,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6212,6 +6316,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6225,6 +6333,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -6249,7 +6361,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6262,7 +6374,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6275,7 +6387,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6288,7 +6400,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6301,7 +6413,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6314,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6327,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6340,7 +6452,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6353,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6366,7 +6478,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6379,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6392,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6405,7 +6517,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
@@ -6418,7 +6530,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -6431,7 +6543,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
@@ -6444,7 +6556,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -6457,7 +6569,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
@@ -6470,7 +6582,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
@@ -6483,7 +6595,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
@@ -6496,7 +6608,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
@@ -6509,7 +6621,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -6522,7 +6634,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -6535,7 +6647,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -6548,7 +6660,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -6561,7 +6673,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -6574,7 +6686,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -6587,7 +6699,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -6600,7 +6712,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -6613,7 +6725,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -6626,7 +6738,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -6639,7 +6751,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -6652,7 +6764,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -6665,7 +6777,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -6678,7 +6790,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -6691,7 +6803,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -6704,7 +6816,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -6717,7 +6829,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -6730,7 +6842,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -6743,7 +6855,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -6756,7 +6868,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -6769,7 +6881,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -6782,7 +6894,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -6795,7 +6907,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -6808,7 +6920,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -6821,7 +6933,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -6834,7 +6946,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -6847,7 +6959,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -6860,7 +6972,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -6873,7 +6985,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -6886,7 +6998,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -6899,7 +7011,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -6912,7 +7024,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -6925,7 +7037,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -6938,7 +7050,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -6951,7 +7063,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -6964,7 +7076,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -6977,7 +7089,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
@@ -6990,7 +7102,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
@@ -7003,7 +7115,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
@@ -7016,7 +7128,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
@@ -7029,7 +7141,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
@@ -7042,7 +7154,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="2"/>
@@ -7055,7 +7167,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="2"/>
@@ -7068,7 +7180,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="2"/>
@@ -7081,7 +7193,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
@@ -7094,7 +7206,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="2"/>
@@ -7107,7 +7219,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="2"/>
@@ -7120,7 +7232,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="2"/>
@@ -7133,7 +7245,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="2"/>
@@ -7146,7 +7258,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="2"/>
@@ -7159,7 +7271,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -7171,7 +7283,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -7183,7 +7295,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -7195,7 +7307,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -7207,7 +7319,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -7224,7 +7336,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7240,6 +7352,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7252,6 +7367,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7265,6 +7384,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>5</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1388888888888889</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7289,7 +7412,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7302,7 +7425,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7315,7 +7438,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7328,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7341,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -7354,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -7367,7 +7490,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
@@ -7380,7 +7503,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="10"/>
@@ -7393,7 +7516,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
@@ -7406,7 +7529,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7419,7 +7542,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7622,7 +7745,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7638,6 +7761,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7650,6 +7776,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7663,6 +7793,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>21</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7687,7 +7821,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7700,7 +7834,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7713,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7726,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7739,7 +7873,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7752,7 +7886,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7765,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7778,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7791,7 +7925,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -7804,7 +7938,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7817,7 +7951,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7830,7 +7964,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -7843,7 +7977,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -7856,7 +7990,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -7869,7 +8003,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -7882,7 +8016,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -7895,7 +8029,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -7908,7 +8042,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -7921,7 +8055,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -7934,7 +8068,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -7947,7 +8081,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -7960,7 +8094,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -7973,7 +8107,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -7986,7 +8120,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -7999,7 +8133,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8012,7 +8146,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8025,7 +8159,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8038,7 +8172,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8051,7 +8185,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8169,7 +8303,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8185,6 +8319,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8197,6 +8334,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8210,6 +8351,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>34</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.53125</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8234,7 +8379,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8247,7 +8392,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8260,7 +8405,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8273,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8286,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8299,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8312,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8325,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8338,7 +8483,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -8351,7 +8496,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -8364,7 +8509,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8377,7 +8522,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8390,7 +8535,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8403,7 +8548,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8416,7 +8561,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8429,7 +8574,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8442,7 +8587,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8455,7 +8600,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8468,7 +8613,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8481,7 +8626,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8494,7 +8639,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8507,7 +8652,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8520,7 +8665,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8533,7 +8678,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8546,7 +8691,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8559,7 +8704,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8572,7 +8717,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8585,7 +8730,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8598,7 +8743,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8611,7 +8756,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8624,7 +8769,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8637,7 +8782,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8650,7 +8795,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8663,7 +8808,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8676,7 +8821,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8689,7 +8834,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8702,7 +8847,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
@@ -8715,7 +8860,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
@@ -8728,7 +8873,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
@@ -8741,7 +8886,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -8754,7 +8899,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -8767,7 +8912,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -8785,7 +8930,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8801,6 +8946,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8813,6 +8961,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8826,6 +8978,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>2</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8850,7 +9006,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -8863,7 +9019,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -8876,7 +9032,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -8889,7 +9045,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -8902,7 +9058,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -8915,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -8928,7 +9084,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -8941,7 +9097,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -9091,7 +9247,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9107,6 +9263,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9119,6 +9278,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9132,6 +9295,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>25</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.69444444444444442</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9156,7 +9323,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9169,7 +9336,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9182,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9195,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9208,7 +9375,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9221,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9234,7 +9401,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -9247,7 +9414,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -9260,7 +9427,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9273,7 +9440,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9286,7 +9453,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9299,7 +9466,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9312,7 +9479,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9325,7 +9492,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9338,7 +9505,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9351,7 +9518,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9364,7 +9531,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9377,7 +9544,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9390,7 +9557,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9403,7 +9570,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9416,7 +9583,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9429,7 +9596,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9442,7 +9609,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9455,7 +9622,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9468,7 +9635,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9481,7 +9648,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9494,7 +9661,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9507,7 +9674,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9520,7 +9687,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9533,7 +9700,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9546,7 +9713,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9564,7 +9731,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9580,6 +9747,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9592,6 +9762,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9605,6 +9779,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>13</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.3611111111111111</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9629,7 +9807,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9642,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9655,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9668,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9681,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9694,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9707,7 +9885,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="2"/>
@@ -9720,7 +9898,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -9733,7 +9911,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9746,7 +9924,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9759,7 +9937,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9772,7 +9950,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9785,7 +9963,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9798,7 +9976,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -9811,7 +9989,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9824,7 +10002,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -9837,7 +10015,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9850,7 +10028,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9863,7 +10041,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>

--- a/scripts/Gnome.xlsx
+++ b/scripts/Gnome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1484,6 +1484,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1517,7 +1521,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1528,6 +1532,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1538,6 +1544,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="21" builtinId="5"/>
   </cellStyles>
@@ -1816,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1863,11 +1871,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.1575</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1893,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1906,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1919,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1932,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1945,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1958,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1971,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1984,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1997,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -2010,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -2023,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2036,7 +2044,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2049,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2062,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2075,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2088,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2101,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2114,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2127,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2140,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2153,815 +2161,725 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>385</v>
+      <c r="A46" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="B47" s="5">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B48" s="5">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B49" s="5">
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="B50" s="5">
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="B51" s="5">
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B52" s="5">
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="B53" s="5">
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B54" s="5">
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B55" s="5">
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B56" s="5">
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="B57" s="5">
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
-        <v>336</v>
+      <c r="A58" t="s">
+        <v>358</v>
       </c>
       <c r="B58" s="5">
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B59" s="5">
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B60" s="5">
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B61" s="5">
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B62" s="5">
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B62&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B63" s="5">
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B63&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B64" s="5">
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B64&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="B65" s="5">
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B65&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B66" s="5">
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B66&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="B67" s="5">
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B67&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="B68" s="5">
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B68&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B69" s="5">
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B69&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>356</v>
-      </c>
-      <c r="B70" s="5">
+        <v>190</v>
+      </c>
+      <c r="B70" s="4">
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f>IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>357</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>358</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>359</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>360</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>361</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>362</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>363</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>364</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>369</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>371</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>374</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>376</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>377</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>378</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>391</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>399</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
   </sheetData>
@@ -2977,7 +2895,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,11 +2941,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.30555555555555558</v>
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3065,7 +2983,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3077,7 +2995,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3089,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3101,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3113,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3125,7 +3043,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3137,7 +3055,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3149,109 +3067,89 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C22">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3262,7 +3160,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3308,11 +3206,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3350,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3362,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3374,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3386,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3398,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3410,7 +3308,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3422,7 +3320,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3434,7 +3332,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3446,109 +3344,94 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B17" s="5">
+        <v>415</v>
+      </c>
+      <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B19" s="4">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20" s="4">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>409</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C23">
-    <sortCondition descending="1" ref="B23"/>
+    <sortCondition descending="1" ref="B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3559,7 +3442,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,11 +3488,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.640625</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3635,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3648,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3661,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3674,7 +3557,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3687,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3700,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3713,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3726,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3739,7 +3622,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -3752,7 +3635,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -3765,7 +3648,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3778,494 +3661,382 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="5">
+        <v>69</v>
+      </c>
+      <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="5">
+        <v>53</v>
+      </c>
+      <c r="B21">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="5">
+        <v>40</v>
+      </c>
+      <c r="B27">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>65</v>
+      <c r="A30" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>60</v>
+      <c r="A32" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="A36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>77</v>
       </c>
-      <c r="B50">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="C54" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B54"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4276,7 +4047,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4322,11 +4093,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.30555555555555558</v>
+        <v>0.2013888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4352,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4365,7 +4136,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4378,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4391,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4404,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4417,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4430,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4443,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4456,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4469,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -4482,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -4495,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -4508,568 +4279,493 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
   </sheetData>
@@ -5085,7 +4781,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5131,11 +4827,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5150,10 +4846,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -5163,45 +4859,45 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1,"common","rare")</f>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" s="4">
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f>IF(B8&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="4">
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f>IF(B9&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
@@ -5210,10 +4906,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
@@ -5222,76 +4918,51 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" ref="C12:C17" si="0">IF(B12&gt;=1,"common","rare")</f>
+        <f>IF(B12&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5303,7 +4974,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C17">
-    <sortCondition descending="1" ref="B17"/>
+    <sortCondition descending="1" ref="B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5313,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5360,11 +5031,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C100, "rare")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,81 +5060,71 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>406</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -5503,7 +5164,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C12">
-    <sortCondition descending="1" ref="B12"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5514,7 +5175,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5560,11 +5221,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.80555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5590,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5603,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5616,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5629,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5642,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5655,111 +5316,111 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>305</v>
+        <v>156</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5768,273 +5429,168 @@
       <c r="A20" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6274,7 +5830,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C40">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6285,7 +5841,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6331,11 +5887,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.4375</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,7 +5917,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6374,7 +5930,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6387,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6400,7 +5956,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6413,7 +5969,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6426,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6439,7 +5995,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6452,7 +6008,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6465,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6478,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6491,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6504,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6517,811 +6073,716 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B47" s="5">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="B49" s="5">
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B50" s="5">
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B51" s="5">
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B52" s="5">
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B53" s="5">
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="B54" s="5">
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B55" s="5">
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B56" s="5">
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B57" s="5">
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="B58" s="5">
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="B59" s="5">
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B60" s="5">
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B61" s="5">
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C80">
@@ -7336,7 +6797,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="B16" sqref="B6:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7382,11 +6843,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.1388888888888889</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7412,7 +6873,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7425,7 +6886,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7438,7 +6899,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7451,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7464,7 +6925,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -7477,74 +6938,64 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7734,7 +7185,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C16">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7745,7 +7196,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7791,11 +7242,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.328125</v>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7821,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7834,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7847,7 +7298,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7860,7 +7311,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7873,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7886,7 +7337,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7899,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7912,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7925,269 +7376,219 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8292,7 +7693,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C46">
-    <sortCondition descending="1" ref="B34"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8303,7 +7704,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8349,11 +7750,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.53125</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8379,7 +7780,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8392,7 +7793,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8405,7 +7806,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8418,7 +7819,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8431,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8444,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8457,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8470,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8483,438 +7884,342 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="5">
+        <v>217</v>
+      </c>
+      <c r="B23">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
   </sheetData>
@@ -8930,7 +8235,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9247,7 +8552,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9293,11 +8598,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.69444444444444442</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9323,7 +8628,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9336,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9349,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9362,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9375,7 +8680,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9388,334 +8693,249 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
@@ -9731,7 +8951,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9777,11 +8997,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.3611111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9807,7 +9027,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9820,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9833,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9846,7 +9066,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9859,7 +9079,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9872,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9885,165 +9105,140 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="5">
+        <v>145</v>
+      </c>
+      <c r="B14" s="4">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B15" s="4">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B19" s="4">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
   </sheetData>
